--- a/data/trans_dic/P25A_6_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_6_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +705,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,3%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>0,65%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>67,1%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,53</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,6; 6,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,26</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,67</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,13</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 2,95</t>
         </is>
       </c>
     </row>
@@ -801,12 +910,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,24 +925,24 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,67%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -841,17 +950,47 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>0,22%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>27,17%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 3,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 3,05</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,3</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,31</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,21</t>
         </is>
       </c>
     </row>
@@ -941,57 +1110,87 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>32,78%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>0,2%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>25,44%</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,67</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,67</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,3</t>
+          <t>0,93; 4,11</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,0</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 1,42</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,66</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,1</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
           <t>1,37%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>45,32%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,58</t>
+          <t>0,32; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,13</t>
+          <t>0,77; 4,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,76</t>
+          <t>0,85; 4,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 87,33</t>
+          <t>0,95; 5,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,42; 3,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,79</t>
+          <t>0,67; 3,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,19</t>
+          <t>0,29; 2,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,77</t>
+          <t>0,26; 2,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,98</t>
+          <t>0,24; 2,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,55</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,48</t>
+          <t>0,38; 3,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 71,36</t>
+          <t>0,24; 3,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,25</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 2,81</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 2,6</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 3,48</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,8</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,82</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,14</t>
+          <t>2,33; 8,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,6</t>
+          <t>1,73; 6,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,44</t>
+          <t>2,51; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 61,95</t>
+          <t>1,14; 6,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,81</t>
+          <t>2,93; 10,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,9</t>
+          <t>2,2; 11,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,74</t>
+          <t>1,06; 6,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,31; 69,35</t>
+          <t>1,08; 5,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,83</t>
+          <t>1,55; 6,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,57</t>
+          <t>1,4; 6,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,04</t>
+          <t>1,07; 5,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,01; 60,13</t>
+          <t>1,82; 8,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 5,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 4,78</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,48</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 5,88</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 6,73</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 7,94</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>8,93%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,04%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 13,22</t>
+          <t>5,41; 14,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,75</t>
+          <t>3,95; 12,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,69</t>
+          <t>2,04; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 41,47</t>
+          <t>1,28; 7,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,31</t>
+          <t>4,13; 15,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,78</t>
+          <t>3,58; 13,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 14,38</t>
+          <t>5,26; 13,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,94; 63,31</t>
+          <t>5,75; 12,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,44</t>
+          <t>5,65; 17,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,37</t>
+          <t>4,14; 14,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,05</t>
+          <t>3,51; 12,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,52; 49,13</t>
+          <t>6,79; 17,71</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 12,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 11,38</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 11,81</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 10,01</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 10,85</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6,56; 14,51</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,14</t>
+          <t>1,55; 3,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,98</t>
+          <t>1,51; 3,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,95</t>
+          <t>1,3; 2,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,56; 43,28</t>
+          <t>1,02; 2,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,31</t>
+          <t>1,84; 4,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,27</t>
+          <t>1,49; 3,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,75</t>
+          <t>1,64; 3,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,88; 56,29</t>
+          <t>1,65; 3,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,88</t>
+          <t>1,84; 4,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,8</t>
+          <t>1,97; 4,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,03</t>
+          <t>1,58; 3,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>27,16; 45,53</t>
+          <t>2,75; 5,35</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 3,11</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 2,93</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,23</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 3,25</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 3,33</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6663</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10992</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5603</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6663</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10992</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15080</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17884</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17390</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15614</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22097</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2485</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1362</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2877; 29060</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21469</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17594</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23180</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2110</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1759</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3097; 27980</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16528</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12170</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1480</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1407</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15422</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16326</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10084</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1262</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2198</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13110</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2822</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3821</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14644</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8431</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>17466</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19243</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15925</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15186</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11885</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1619</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1899</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6637; 29475</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13980</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1998; 19836</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>208; 1891</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>255; 2432</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8281; 34188</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12460</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12696</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11630</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6216</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7244</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13051</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>19704</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>17953</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>18030</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2093; 18453</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4942; 25864</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5451; 26184</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>554; 3176</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>238; 2111</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4420; 25081</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1979; 18170</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1779; 18428</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1592; 13971</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1324</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>205; 1689</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1565; 20997</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4611; 29882</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>10986; 37092</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>9184; 33747</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>805; 3833</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>560; 3084</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>7391; 37134</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22472</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17064</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24771</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25064</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14164</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13130</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17628</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23207</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>36636</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>30194</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>42399</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>48271</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11542; 41658</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8738; 31758</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12378; 54509</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>505; 3010</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1315; 4531</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10858; 55258</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5335; 30252</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5442; 27452</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8005; 31513</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>681; 3340</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>492; 2761</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9396; 45370</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>21600; 59260</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>16939; 48109</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>25669; 75468</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1901; 5472</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2361; 6129</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>26203; 80150</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>49235</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>37932</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22101</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3666</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>41709</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>64117</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64106</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>64180</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>85319</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>113352</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>102038</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>86280</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7916</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>127028</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>29496; 78003</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>20888; 64001</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10865; 42240</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>600; 3704</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1893; 6925</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20303; 79111</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>37723; 94913</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>39793; 89195</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>39132; 122274</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2636; 9218</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2238; 7674</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>49909; 130066</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>77379; 154301</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>74320; 138957</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>54906; 144717</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>3929; 11072</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>4997; 11887</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>85287; 188719</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>81551</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>76484</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>66597</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7927</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>81225</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>87697</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87061</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>97548</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8877</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7144</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>143600</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>169249</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>163545</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>164145</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>13828</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>15071</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>224825</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>53318; 115173</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>52062; 107679</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44672; 102124</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3072; 7630</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5559; 12295</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>51150; 128353</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>58878; 128103</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>59539; 118754</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>66356; 150120</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5955; 13784</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4771; 11046</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>99203; 193149</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>127920; 219200</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>127750; 207010</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>122667; 227701</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>10253; 19602</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>11246; 20131</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>171527; 291179</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
